--- a/jacobi/src/test/resources/jacobi/test/data/MulTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/MulTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19440" windowHeight="11040" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="5x5 mul 5x5" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,16 @@
     <sheet name="7x3 mul 3x5" sheetId="4" r:id="rId3"/>
     <sheet name="2x9 mul 9x1" sheetId="5" r:id="rId4"/>
     <sheet name="13x1 mul 1x4" sheetId="6" r:id="rId5"/>
-    <sheet name="rand" sheetId="3" r:id="rId6"/>
+    <sheet name="Scalar mul 7x7" sheetId="7" r:id="rId6"/>
+    <sheet name="Scalar mul 13x2" sheetId="8" r:id="rId7"/>
+    <sheet name="rand" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="3">
   <si>
     <t>#0</t>
   </si>
@@ -1686,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:D35"/>
     </sheetView>
   </sheetViews>
@@ -2000,10 +2002,733 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>24.462041607345377</v>
+      </c>
+      <c r="B3">
+        <v>-8.6357430749646689</v>
+      </c>
+      <c r="C3">
+        <v>13.514581733608686</v>
+      </c>
+      <c r="D3">
+        <v>-11.497417956777067</v>
+      </c>
+      <c r="E3">
+        <v>16.548011356849258</v>
+      </c>
+      <c r="F3">
+        <v>23.984383482925224</v>
+      </c>
+      <c r="G3">
+        <v>-11.846395225677082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12.753984060906141</v>
+      </c>
+      <c r="B4">
+        <v>-13.368536925736141</v>
+      </c>
+      <c r="C4">
+        <v>12.881055983324799</v>
+      </c>
+      <c r="D4">
+        <v>1.6020650719810803</v>
+      </c>
+      <c r="E4">
+        <v>3.6361376483354064</v>
+      </c>
+      <c r="F4">
+        <v>-20.113815631818692</v>
+      </c>
+      <c r="G4">
+        <v>24.51156924879195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>24.222948565374388</v>
+      </c>
+      <c r="B5">
+        <v>24.855212592326524</v>
+      </c>
+      <c r="C5">
+        <v>16.851403294447223</v>
+      </c>
+      <c r="D5">
+        <v>-6.3395688101155194</v>
+      </c>
+      <c r="E5">
+        <v>1.0784366205644176</v>
+      </c>
+      <c r="F5">
+        <v>-18.750998851809079</v>
+      </c>
+      <c r="G5">
+        <v>-0.68505461585876049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-12.544926453604822</v>
+      </c>
+      <c r="B6">
+        <v>12.575017713975676</v>
+      </c>
+      <c r="C6">
+        <v>3.4551841311930289</v>
+      </c>
+      <c r="D6">
+        <v>2.0504145182122571</v>
+      </c>
+      <c r="E6">
+        <v>-9.6740350615020017</v>
+      </c>
+      <c r="F6">
+        <v>11.575273062571718</v>
+      </c>
+      <c r="G6">
+        <v>-10.539722892687065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-22.25806075162421</v>
+      </c>
+      <c r="B7">
+        <v>-3.4544050684855385</v>
+      </c>
+      <c r="C7">
+        <v>-11.781102250060721</v>
+      </c>
+      <c r="D7">
+        <v>-7.231628563216109</v>
+      </c>
+      <c r="E7">
+        <v>-5.800275260796635</v>
+      </c>
+      <c r="F7">
+        <v>-0.59595507825969563</v>
+      </c>
+      <c r="G7">
+        <v>21.054300616968888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-20.947630767675779</v>
+      </c>
+      <c r="B8">
+        <v>-22.159060253468738</v>
+      </c>
+      <c r="C8">
+        <v>6.5212278373647017</v>
+      </c>
+      <c r="D8">
+        <v>-19.713442213250516</v>
+      </c>
+      <c r="E8">
+        <v>12.293839174061894</v>
+      </c>
+      <c r="F8">
+        <v>5.188510582204124</v>
+      </c>
+      <c r="G8">
+        <v>-0.33991207270605628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16.149534813856867</v>
+      </c>
+      <c r="B9">
+        <v>-18.963475561990705</v>
+      </c>
+      <c r="C9">
+        <v>3.7215051974781481</v>
+      </c>
+      <c r="D9">
+        <v>-0.73548417400224508</v>
+      </c>
+      <c r="E9">
+        <v>-16.912029325688682</v>
+      </c>
+      <c r="F9">
+        <v>11.399451711889405</v>
+      </c>
+      <c r="G9">
+        <v>-1.0417226869692371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11.22318353384825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>A3*$A$13</f>
+        <v>274.54198257186943</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:G17" si="0">B3*$A$13</f>
+        <v>-96.92052948148752</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>151.67663117948334</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-129.03763189427156</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>185.72136857812444</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>269.18113777506829</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>-132.95426783227754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ref="A18:G18" si="1">A4*$A$13</f>
+        <v>143.14030390332485</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>-150.03754349656415</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>144.56645541062835</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>17.980270336011472</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>40.809040181603628</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>-225.74104440188708</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>275.09784038182295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" ref="A19:G19" si="2">A5*$A$13</f>
+        <v>271.85859748016293</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>278.95461269649672</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>189.12639197647621</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>-71.150144281386446</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>12.103492122217524</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>-210.4459015568311</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>-7.6884936844927791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" ref="A20:G20" si="3">A6*$A$13</f>
+        <v>-140.79401200743496</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>141.13173174534185</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>38.778165647619375</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>23.012178458363195</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>-108.57347100811991</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>129.91141403565211</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>-118.28924442052892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ref="A21:G21" si="4">A7*$A$13</f>
+        <v>-249.80630092302283</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>-38.769422083868832</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>-132.22147278346407</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>-81.161894613593716</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>-65.09755379876016</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>-6.6885132212374607</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>236.29628000105626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" ref="A22:G22" si="5">A8*$A$13</f>
+        <v>-235.09910470491178</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="5"/>
+        <v>-248.69520016228157</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="5"/>
+        <v>73.188936884784354</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>-221.2475800432222</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>137.97601338611003</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>58.231606531390717</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>-3.81489557735084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" ref="A23:G23" si="6">A9*$A$13</f>
+        <v>181.24919320218746</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="6"/>
+        <v>-212.83056667186776</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="6"/>
+        <v>41.76713585346743</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>-8.2544738710679777</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>-189.80680905202794</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>127.93813874777541</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>-11.691444907229297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-21.918622989202042</v>
+      </c>
+      <c r="B3">
+        <v>5.4786459219958878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17.454559219649369</v>
+      </c>
+      <c r="B4">
+        <v>-4.1602632569919642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>18.33452995529214</v>
+      </c>
+      <c r="B5">
+        <v>11.884395243910291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.4566716776335582</v>
+      </c>
+      <c r="B6">
+        <v>0.76756633579430655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5.5269312587574184</v>
+      </c>
+      <c r="B7">
+        <v>1.745097925602014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-3.3364555971862515</v>
+      </c>
+      <c r="B8">
+        <v>14.472113897374228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16.361279602808587</v>
+      </c>
+      <c r="B9">
+        <v>-23.975865895882738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.1153384825386539</v>
+      </c>
+      <c r="B10">
+        <v>8.5940763642172797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.4076580937828496</v>
+      </c>
+      <c r="B11">
+        <v>0.49139434058472276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-11.896586081356391</v>
+      </c>
+      <c r="B12">
+        <v>0.93526545123647864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8.7146996341387464</v>
+      </c>
+      <c r="B13">
+        <v>13.412360186224696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16.561332249749945</v>
+      </c>
+      <c r="B14">
+        <v>13.602060394015474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>21.177368838477136</v>
+      </c>
+      <c r="B15">
+        <v>-21.699727698099245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.47332970910730765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A3*$A$19</f>
+        <v>-10.374735443511749</v>
+      </c>
+      <c r="B23">
+        <f>B3*$A$19</f>
+        <v>2.5932058805602507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ref="A24:B24" si="0">A4*$A$19</f>
+        <v>8.2617614380329112</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>-1.9691761972418267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ref="A25:B25" si="1">A5*$A$19</f>
+        <v>8.6782777303576477</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>5.6252373437163286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" ref="A26:B26" si="2">A6*$A$19</f>
+        <v>0.68948598143914597</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>0.36331195044208114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ref="A27:B27" si="3">A7*$A$19</f>
+        <v>2.6160607649637346</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>0.82600669348896727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" ref="A28:B28" si="4">A8*$A$19</f>
+        <v>-1.5792435572656169</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="4"/>
+        <v>6.8500814612119676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ref="A29:B29" si="5">A9*$A$19</f>
+        <v>7.7442797150207143</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="5"/>
+        <v>-11.348489630093994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" ref="A30:B30" si="6">A10*$A$19</f>
+        <v>1.9479119668181299</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="6"/>
+        <v>4.067831665520953</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" ref="A31:B31" si="7">A11*$A$19</f>
+        <v>1.139616105160091</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="7"/>
+        <v>0.23259154028594409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" ref="A32:B32" si="8">A12*$A$19</f>
+        <v>-5.6310076292584652</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="8"/>
+        <v>0.44268892397187726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ref="A33:B33" si="9">A13*$A$19</f>
+        <v>4.1249262427844533</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="9"/>
+        <v>6.3484685453881697</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ref="A34:B34" si="10">A14*$A$19</f>
+        <v>7.8389705762036144</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="10"/>
+        <v>6.4382592895593751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ref="A35:B35" si="11">A15*$A$19</f>
+        <v>10.023877831974545</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="11"/>
+        <v>-10.271125799049102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:G8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,1303 +2736,1303 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*50-25</f>
-        <v>-2.3870625628494899</v>
+        <v>13.874709225368456</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:J16" ca="1" si="0">RAND()*50-25</f>
-        <v>-11.650991917416947</v>
+        <v>18.006546994418329</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.6003656708834235</v>
+        <v>23.531395274992455</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>14.603549723780048</v>
+        <v>-22.601955918702988</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.767708330122318</v>
+        <v>16.180233215844304</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.823318590990905</v>
+        <v>24.962072562265035</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>19.302344590210083</v>
+        <v>20.538579044448781</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.057765297114065</v>
+        <v>-10.60007733355895</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>13.947652950131115</v>
+        <v>-9.7951078241069247</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9269685431309256</v>
+        <v>-10.180132225059936</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:J31" ca="1" si="1">RAND()*50-25</f>
-        <v>-15.867925255156251</v>
+        <v>2.5615343760979741</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3006145582640478</v>
+        <v>20.349536923708882</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.84621718250218</v>
+        <v>14.491309847531319</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>14.887534510444986</v>
+        <v>23.68175534165843</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.971303612117659</v>
+        <v>18.077959739469826</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.3286471542947</v>
+        <v>-5.4455032795312839</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.667180340128418</v>
+        <v>20.213085861348887</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6390528112886855</v>
+        <v>3.7552444583428368</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.224043232839399</v>
+        <v>-22.443599655607414</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.458835342486672</v>
+        <v>-11.799990667962795</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>17.145301954415949</v>
+        <v>-4.8342089124450496</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>16.672966703019569</v>
+        <v>-16.966952016420993</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.448669597494554</v>
+        <v>16.232578992591115</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.5138827897321363</v>
+        <v>22.487624267212801</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.217723564704869</v>
+        <v>-11.143278649106108</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>20.339701897041316</v>
+        <v>2.7964780279563435</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>13.49726369477942</v>
+        <v>-19.446352097569985</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4241804754300773</v>
+        <v>17.901634966778872</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5888666807029246</v>
+        <v>-14.66204160232525</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.6978607286510723</v>
+        <v>-0.86123684269879774</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1556644825937497</v>
+        <v>-15.655719052180473</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>19.436317200117472</v>
+        <v>-4.4025945119910439</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.7604892087801645</v>
+        <v>23.193652670146072</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.7659237731128137</v>
+        <v>-21.858956832207092</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.6485234216406592</v>
+        <v>8.404076200476112</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>21.659769745081455</v>
+        <v>6.626222324352959</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.622054902750655</v>
+        <v>-7.6019842570226928</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.48784903687616321</v>
+        <v>11.494497108019829</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.675886767749393</v>
+        <v>6.6285593530059757</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.7721551646996119</v>
+        <v>-5.3511499190981588</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2875441377959405</v>
+        <v>-9.5129734500366538</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>17.785204676351285</v>
+        <v>-13.870117385531088</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7112525743701923</v>
+        <v>17.364427056118778</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4715298074033463</v>
+        <v>11.231631641982943</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70320106922049419</v>
+        <v>-19.868825588558952</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.570995330224136</v>
+        <v>-0.55774477748534679</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.09056315256089</v>
+        <v>-8.0511875970436861</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.294832590243082</v>
+        <v>-15.583310492737063</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.523301490001892</v>
+        <v>-24.157201894872237</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>14.635271443534329</v>
+        <v>0.72825788294906957</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.6623851222921857</v>
+        <v>-2.5847387413268308</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.413927881763613</v>
+        <v>-21.316722679141247</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3166123434021983</v>
+        <v>15.98101472360046</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6347342670207077</v>
+        <v>-13.265285068075833</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.326740264153937</v>
+        <v>1.8978506959041788</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.065409921583079</v>
+        <v>-13.97535922012228</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>22.518364627814158</v>
+        <v>-14.521796343896852</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1160741813702764</v>
+        <v>-5.5076606458693043</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>10.349667599124878</v>
+        <v>7.4213435180547975</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.881940353964108</v>
+        <v>-24.360836717488006</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9393159677537888</v>
+        <v>-8.5236471196320274</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2091590692481731</v>
+        <v>14.165257715819735</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.353583310329704</v>
+        <v>-6.1196455324706847</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.315878007945734</v>
+        <v>-15.216704114380292</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.2727944868613363</v>
+        <v>20.786956560334957</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.052971091806967</v>
+        <v>11.644393164868738</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>16.955909061844196</v>
+        <v>7.6028703306042829</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53904696661419393</v>
+        <v>-15.825013014854161</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>16.699605034429233</v>
+        <v>-12.930911630978564</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.874814467872827</v>
+        <v>-1.9393288450925681</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.759345969186878</v>
+        <v>22.677639641523065</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8268052704350914</v>
+        <v>2.477229892459178</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0567989595929603</v>
+        <v>-2.6196415427123156</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>13.706019185517071</v>
+        <v>4.3303567719936318</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>23.854077044810246</v>
+        <v>20.826289403309787</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.321820848772234</v>
+        <v>-14.676877358989875</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.345461234983674</v>
+        <v>-5.6636709430287908</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>17.383655558643277</v>
+        <v>-3.266951200793379</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.901661865007757</v>
+        <v>-6.2633204628053107</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5629931912354955</v>
+        <v>19.27377321659683</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.444165063123236</v>
+        <v>18.535931665645869</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.020566596466651</v>
+        <v>17.917887305250879</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.073887179352147</v>
+        <v>0.13324986811458217</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0722700221589534</v>
+        <v>-13.523190230362736</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1460025062995065</v>
+        <v>-12.042448009453683</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.241349266898304</v>
+        <v>3.5134737278046657</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7843479886584639</v>
+        <v>20.797701182805042</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>12.386095046036324</v>
+        <v>-10.393056749464542</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>19.981361967504128</v>
+        <v>6.9391274149271602</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4360257916748793</v>
+        <v>-20.531641867968542</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5808804375669823</v>
+        <v>-9.2684592302796247</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>18.225429324132357</v>
+        <v>-12.966498419707495</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4012518426122824</v>
+        <v>11.172529908642097</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>15.099290968694831</v>
+        <v>6.3318427202112062</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>15.871219790073546</v>
+        <v>19.286733047189095</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7779335874871194</v>
+        <v>-5.1516635351798179</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.249085910337524</v>
+        <v>3.5718332585745571</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5423159746159349</v>
+        <v>21.53156394399322</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.92100956134027</v>
+        <v>10.90819186088212</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9470271253992912</v>
+        <v>23.657883298025062</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0878991852114268</v>
+        <v>-1.1487797946991378</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6596474918308317</v>
+        <v>11.708274787147467</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4610142772303867</v>
+        <v>-9.6504745840792214</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>20.850421341005863</v>
+        <v>13.216459422843222</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4033300975468457</v>
+        <v>-1.9633867046401008</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69276833408105176</v>
+        <v>-21.092037236628421</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82334273557795257</v>
+        <v>11.383911609198336</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4574187903644216</v>
+        <v>17.134644768240435</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3124266337779247</v>
+        <v>-16.613728562996972</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>14.902875597235244</v>
+        <v>-20.825482615952506</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>14.931983218809499</v>
+        <v>-17.961255878588982</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1146667082189659</v>
+        <v>13.803656572290194</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>22.807296182509504</v>
+        <v>18.124133692402133</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>19.808157812542895</v>
+        <v>12.831528606765801</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>21.123037271884705</v>
+        <v>10.409807284069885</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8188681190629801</v>
+        <v>12.943789420411036</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>19.29422096180862</v>
+        <v>12.71712032061977</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>24.625326119736243</v>
+        <v>-2.052799665940686</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3738127287719699</v>
+        <v>12.037212441371132</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.526397887122322</v>
+        <v>9.0310826949928611</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2000196393206188</v>
+        <v>-21.334897917123246</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.688511992768269</v>
+        <v>15.987201721282894</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.85835527749785E-2</v>
+        <v>-19.612406248806092</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.30291746676766</v>
+        <v>0.76858629957459357</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.120740983151034</v>
+        <v>12.293075566104235</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>21.968456984005797</v>
+        <v>16.817675166047593</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9612260577543168</v>
+        <v>-7.0790148016394383</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.4095992097866841</v>
+        <v>-17.902990886210539</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>20.643766160197288</v>
+        <v>15.804534103174653</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>23.388269434452027</v>
+        <v>-11.954655881800802</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.149617526315282</v>
+        <v>20.705272005888645</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8608574014323658</v>
+        <v>-18.413681797980232</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.107288755203054</v>
+        <v>16.965125738398676</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.100552461864684</v>
+        <v>4.0594821420094114</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1469438922711817</v>
+        <v>-11.847670847019298</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.048594040330499</v>
+        <v>12.106703355214357</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>12.602496612006867</v>
+        <v>-2.2177409663532721</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.295692337092202</v>
+        <v>-21.916907235717453</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>20.308747124227992</v>
+        <v>-21.885764679671254</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.230038864455064</v>
+        <v>14.853351540477696</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.555287609540805</v>
+        <v>3.8231144444980494</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3837586567913611</v>
+        <v>0.68104622312842267</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.7596618999577309</v>
+        <v>15.99436078879701</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.8754453407313143</v>
+        <v>-2.4133406058585223</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1877174609652528</v>
+        <v>19.505443167539454</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5639349242437142</v>
+        <v>-5.8926295313376293</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.560316867922211</v>
+        <v>8.684561954545714</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.134029138081743</v>
+        <v>-13.333992344297329</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>21.282879287921261</v>
+        <v>-11.512015452146118</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3293459679456134</v>
+        <v>8.8235841944542059</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>24.528952373844071</v>
+        <v>1.0913129056079605</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4952332314669654</v>
+        <v>-11.960652583599796</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.282647950102351</v>
+        <v>0.8021293002906873</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.494328145164982</v>
+        <v>-22.218935816859688</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.494113807163087</v>
+        <v>16.827990432259341</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>19.985139369041924</v>
+        <v>-13.65531410775983</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.806466935524618</v>
+        <v>13.827334136926645</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.7129050472927787</v>
+        <v>-1.9108406074923359</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.8499462287913317</v>
+        <v>-5.7527513662418635</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2486954647350395</v>
+        <v>-12.311931977320507</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.53896312598739</v>
+        <v>6.2005370953963244</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.530486987773202</v>
+        <v>-6.2540492837507777</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>23.353733808615424</v>
+        <v>6.5637305846789857</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0778939896768058</v>
+        <v>-19.671140895129781</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>20.388025326448592</v>
+        <v>-12.965169637931579</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>20.040851335062179</v>
+        <v>-14.350713524926013</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3915660073296827</v>
+        <v>-19.792988626493717</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.292023027219916</v>
+        <v>6.8428722288760362</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>20.841602428382117</v>
+        <v>-5.4342457264381459</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1228339488249155</v>
+        <v>4.7264661101637557</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.728519482673946</v>
+        <v>19.559073177982746</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.0272616388997129</v>
+        <v>-19.890927953473554</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>17.849812487052219</v>
+        <v>24.539345699947383</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>23.811046250430131</v>
+        <v>-11.751816900594402</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>14.885816084979162</v>
+        <v>2.1836273982916659</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1922863008518156</v>
+        <v>-23.414859362823332</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.511969948364957</v>
+        <v>14.325595212851603</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.895865084251223</v>
+        <v>-1.1549453187683305</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>18.391018164075057</v>
+        <v>22.782112185716933</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4092452504714785</v>
+        <v>-1.3224273960957156</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7184537338198922</v>
+        <v>24.539314831351234</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.130343176003489</v>
+        <v>16.174514395035985</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>16.106874623172544</v>
+        <v>-9.7360633345871701</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>16.609713555373581</v>
+        <v>-23.091838289248678</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>15.896450142061347</v>
+        <v>-19.556668666417821</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.729449286670569</v>
+        <v>-24.943586254501536</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2548258519349318</v>
+        <v>5.9171399638268518</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>18.57301207250989</v>
+        <v>2.6771857804699977</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>14.375999507723087</v>
+        <v>-5.5274671633343821</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7909975477531788</v>
+        <v>-21.679236231490727</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>19.07035765259532</v>
+        <v>15.111213145974226</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.551198304297305</v>
+        <v>7.2799492807325308</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.2461875343602848</v>
+        <v>-19.356510423567013</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.076297034758102</v>
+        <v>18.608060868144072</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.75715594841624778</v>
+        <v>-13.42356684785898</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3169762298001579</v>
+        <v>-3.4669883428449282</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.917792966839448</v>
+        <v>-6.1922941119858095</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>17.091149281952163</v>
+        <v>1.3428611594521342</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8003129096670278</v>
+        <v>23.91973086680008</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>10.761797531593828</v>
+        <v>-5.5865797289960035</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.7480384546994259</v>
+        <v>23.571689599959036</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>22.162061218714577</v>
+        <v>-24.335764719743025</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>24.046933906790343</v>
+        <v>6.5124653498583278</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.442012110915133</v>
+        <v>14.240131638375317</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.464665120802437</v>
+        <v>-19.869831606856625</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>11.688503308589226</v>
+        <v>-12.87822320696907</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.510542348166638</v>
+        <v>-5.7800575833738641</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>19.782356767848484</v>
+        <v>-9.5127911703757562</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1371200002648472</v>
+        <v>1.871154024579841</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.174871632791206</v>
+        <v>-1.3384713805702546</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>13.312645207620989</v>
+        <v>-0.39795363144267171</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8398186979617286</v>
+        <v>0.81876267503774969</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.692325387745697</v>
+        <v>18.940021993728692</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0406384721196993</v>
+        <v>17.06165118755677</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.876424419972363</v>
+        <v>9.0791394278660391</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.497769016002572</v>
+        <v>-21.661506050755197</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>14.923678949415354</v>
+        <v>21.800006426345959</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>16.176781687576089</v>
+        <v>-6.9707730340048464</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>15.935300750970882</v>
+        <v>-18.22692412072837</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2313659425495089</v>
+        <v>14.479093750578961</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>23.814114627789536</v>
+        <v>-17.870060169103354</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>11.14057595133923</v>
+        <v>1.6889027262059422</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.91796450439236565</v>
+        <v>12.035829137987619</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3453238831162402</v>
+        <v>18.480215919954638</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>13.216161476703121</v>
+        <v>13.397759169509996</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.139595942109707</v>
+        <v>14.731797902916391</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.315796628130791</v>
+        <v>22.009372546572251</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.410397217709711</v>
+        <v>23.06652070610555</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5707041345728889</v>
+        <v>-24.52863404749046</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>15.110654346063725</v>
+        <v>5.199056170053634</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.291897291438241</v>
+        <v>-1.0924985815774235</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9195939901890107</v>
+        <v>14.742925577237287</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.6380448516826256</v>
+        <v>2.7411481721280886</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.645354222172553</v>
+        <v>-4.3098292615550911</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.495482284136436</v>
+        <v>20.009473782086765</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1691233101019236</v>
+        <v>2.5782951610088745</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.475482884949583</v>
+        <v>-24.73504510888397</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.9418110416738692</v>
+        <v>-0.30676591324469271</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.438654299123314</v>
+        <v>-14.211254397045836</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>11.41503826775169</v>
+        <v>-2.9245608126714302</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>21.53851098801028</v>
+        <v>24.115842856683322</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.406518387544686</v>
+        <v>1.209568572224363</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>21.877855589698271</v>
+        <v>-21.304541890879346</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>8.289938579585268</v>
+        <v>22.235016731361505</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>14.520292744045783</v>
+        <v>21.969885535554816</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.988544895576783</v>
+        <v>-2.3229829300044358</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.5201455088661433</v>
+        <v>18.055685326532</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>16.103207074030529</v>
+        <v>-6.2003016534413469</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.073012265537898</v>
+        <v>12.644779600353708</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3298769592816413</v>
+        <v>18.337691544052298</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>23.47372450446337</v>
+        <v>-7.3659983221681884</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17083714102204084</v>
+        <v>20.62794169105986</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.124702361041457</v>
+        <v>3.7294306180494239</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.167213982381103</v>
+        <v>19.864414489809555</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>17.844261675220686</v>
+        <v>20.018579455743968</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>21.125782742035845</v>
+        <v>-4.4752377667307925</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>11.287153167489564</v>
+        <v>-7.6551632224443829</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2955038217139077</v>
+        <v>12.274701282350819</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.253774945690601</v>
+        <v>20.451156060174597</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.8570992833731772</v>
+        <v>-24.292931126209517</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>23.334344327518082</v>
+        <v>6.0582337848251804</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.6410148733572214</v>
+        <v>17.268387191480095</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.287755893868448</v>
+        <v>-17.197726179942073</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9995782574561289</v>
+        <v>4.4567350495811127</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0290910002459732</v>
+        <v>-18.838971162918746</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>21.380774126266189</v>
+        <v>3.0520269206599906</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>18.557234528484123</v>
+        <v>-7.0857334082208219</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.251863712542793</v>
+        <v>16.231685383288344</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2036702256886898</v>
+        <v>-9.1940108364467079</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.67608313026227407</v>
+        <v>-4.0653557844566492</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.50270102550295448</v>
+        <v>-21.274189831861019</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0596845144447329</v>
+        <v>16.01630848218187</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>4.022022082329439</v>
+        <v>-7.8878917381645479</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4616383873167891</v>
+        <v>0.26516027139240705</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4367878330399719</v>
+        <v>5.3116625618581672</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>10.101250847750677</v>
+        <v>-12.301577855526013</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.536598943246666</v>
+        <v>-12.435715152435211</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>13.190631684548016</v>
+        <v>-12.605932152314015</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0271842119358396</v>
+        <v>-13.042682201315737</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.559618643082707</v>
+        <v>22.902124962269696</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.616597769732101</v>
+        <v>16.749046482865339</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.605698065809923</v>
+        <v>12.539826411667434</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.352072834532493</v>
+        <v>-6.4177756040469269</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.892975647439656</v>
+        <v>-24.34365237547631</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.2644979918937338</v>
+        <v>7.8612783044221359</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8856019463132156</v>
+        <v>17.869411316418606</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>2.420902352281999</v>
+        <v>20.440006588645602</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0510523411577992</v>
+        <v>22.845410776389407</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5000356519551854</v>
+        <v>-10.459676764994368</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.610650378353935</v>
+        <v>1.7697132132234792</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.469207560702689</v>
+        <v>14.694988153045607</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9923250859241044</v>
+        <v>4.3602327579491664</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.524304003965174</v>
+        <v>16.898064232201484</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29557460426247673</v>
+        <v>14.918938161731575</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8097274848658884</v>
+        <v>7.4739928205310235</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>11.208598522736615</v>
+        <v>17.215218360174099</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.0141693440407291</v>
+        <v>10.906251233139947</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3577564772606436</v>
+        <v>-6.8184112925531153</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.142752618602582</v>
+        <v>-12.699772449526359</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5872136249145115</v>
+        <v>-23.437031604007082</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="1"/>
-        <v>21.3210720571645</v>
+        <v>8.7309649106974661</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0678584060056231</v>
+        <v>-4.2621689963788683</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5862207474009509</v>
+        <v>-0.4704184817555479</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>12.884256367373339</v>
+        <v>13.77202449416319</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2991365528673811</v>
+        <v>17.100487765707491</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>24.843997033669851</v>
+        <v>11.700442065380628</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>23.20132067636527</v>
+        <v>13.707765124811679</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>16.050012196122871</v>
+        <v>-20.082738445342823</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.260881847639387</v>
+        <v>20.512412676748134</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="1"/>
-        <v>10.997833962836879</v>
+        <v>23.040061549585339</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/MulTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/MulTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="19440" windowHeight="11040" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19440" windowHeight="11040" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="5x5 mul 5x5" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="13x1 mul 1x4" sheetId="6" r:id="rId5"/>
     <sheet name="Scalar mul 7x7" sheetId="7" r:id="rId6"/>
     <sheet name="Scalar mul 13x2" sheetId="8" r:id="rId7"/>
-    <sheet name="rand" sheetId="3" r:id="rId8"/>
+    <sheet name="8x4 mul 4x8" sheetId="9" r:id="rId8"/>
+    <sheet name="rand" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
   <si>
     <t>#0</t>
   </si>
@@ -2434,7 +2435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:B35"/>
     </sheetView>
   </sheetViews>
@@ -2725,10 +2726,489 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16.988893341023498</v>
+      </c>
+      <c r="B3">
+        <v>-6.1006649232955077</v>
+      </c>
+      <c r="C3">
+        <v>5.5798583655997724</v>
+      </c>
+      <c r="D3">
+        <v>-5.3433421507157952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-0.77777326204735431</v>
+      </c>
+      <c r="B4">
+        <v>-5.4406992673412162</v>
+      </c>
+      <c r="C4">
+        <v>22.19493797638885</v>
+      </c>
+      <c r="D4">
+        <v>-9.6945007766385807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15.676891056444759</v>
+      </c>
+      <c r="B5">
+        <v>-20.679389816346529</v>
+      </c>
+      <c r="C5">
+        <v>-16.339318313538641</v>
+      </c>
+      <c r="D5">
+        <v>-9.6768047498527743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-18.120914953738083</v>
+      </c>
+      <c r="B6">
+        <v>-9.2621427071752809</v>
+      </c>
+      <c r="C6">
+        <v>10.803453624205432</v>
+      </c>
+      <c r="D6">
+        <v>-11.58944318427495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.6239593603671665</v>
+      </c>
+      <c r="B7">
+        <v>20.304094778951821</v>
+      </c>
+      <c r="C7">
+        <v>-12.317995864276499</v>
+      </c>
+      <c r="D7">
+        <v>11.264107000914116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21.524224812462442</v>
+      </c>
+      <c r="B8">
+        <v>-13.744536098890258</v>
+      </c>
+      <c r="C8">
+        <v>20.827715885888118</v>
+      </c>
+      <c r="D8">
+        <v>0.40941068582671036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>14.263011089570995</v>
+      </c>
+      <c r="B9">
+        <v>18.235009801707179</v>
+      </c>
+      <c r="C9">
+        <v>-15.267437981903942</v>
+      </c>
+      <c r="D9">
+        <v>4.6039667045529136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-13.409403756069066</v>
+      </c>
+      <c r="B10">
+        <v>5.2572155694703788</v>
+      </c>
+      <c r="C10">
+        <v>-8.2865913032991578</v>
+      </c>
+      <c r="D10">
+        <v>-0.96663715088328672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>17.955385791689778</v>
+      </c>
+      <c r="B14">
+        <v>20.417861941023283</v>
+      </c>
+      <c r="C14">
+        <v>-12.400036741435249</v>
+      </c>
+      <c r="D14">
+        <v>-23.601958007037794</v>
+      </c>
+      <c r="E14">
+        <v>16.644105354965426</v>
+      </c>
+      <c r="F14">
+        <v>4.0733312769421204</v>
+      </c>
+      <c r="G14">
+        <v>-18.270609185199238</v>
+      </c>
+      <c r="H14">
+        <v>-10.661830647187703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>19.630598616990795</v>
+      </c>
+      <c r="B15">
+        <v>13.937794764199232</v>
+      </c>
+      <c r="C15">
+        <v>8.3326190261089863</v>
+      </c>
+      <c r="D15">
+        <v>-8.4058800317304936</v>
+      </c>
+      <c r="E15">
+        <v>10.671802586138398</v>
+      </c>
+      <c r="F15">
+        <v>9.6630997855809255</v>
+      </c>
+      <c r="G15">
+        <v>-7.542468840007178</v>
+      </c>
+      <c r="H15">
+        <v>20.801531043288222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-8.0317015819712623E-2</v>
+      </c>
+      <c r="B16">
+        <v>-21.098336283647022</v>
+      </c>
+      <c r="C16">
+        <v>-14.851233446647999</v>
+      </c>
+      <c r="D16">
+        <v>17.900454069328497</v>
+      </c>
+      <c r="E16">
+        <v>15.74144467803977</v>
+      </c>
+      <c r="F16">
+        <v>19.757036026407484</v>
+      </c>
+      <c r="G16">
+        <v>-23.367698511472728</v>
+      </c>
+      <c r="H16">
+        <v>16.332985961229305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3.2240092893244992</v>
+      </c>
+      <c r="B17">
+        <v>-18.3099490018731</v>
+      </c>
+      <c r="C17">
+        <v>1.0041026708517151</v>
+      </c>
+      <c r="D17">
+        <v>5.2398746585144771</v>
+      </c>
+      <c r="E17">
+        <v>20.681263129997447</v>
+      </c>
+      <c r="F17">
+        <v>-9.2105428042977326</v>
+      </c>
+      <c r="G17">
+        <v>5.2679106214173004</v>
+      </c>
+      <c r="H17">
+        <v>18.921218130997154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="array" ref="A21:H28">MMULT(A3:D10,A14:H17)</f>
+        <v>167.60728740340883</v>
+      </c>
+      <c r="B21">
+        <v>241.95765720836562</v>
+      </c>
+      <c r="C21">
+        <v>-349.73046154834617</v>
+      </c>
+      <c r="D21">
+        <v>-277.8061345024031</v>
+      </c>
+      <c r="E21">
+        <v>194.98780568750323</v>
+      </c>
+      <c r="F21">
+        <v>169.70660104300885</v>
+      </c>
+      <c r="G21">
+        <v>-422.92005252926987</v>
+      </c>
+      <c r="H21">
+        <v>-318.00266850301449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-153.80719423526611</v>
+      </c>
+      <c r="B22">
+        <v>-382.48226724950166</v>
+      </c>
+      <c r="C22">
+        <v>-375.0473365481123</v>
+      </c>
+      <c r="D22">
+        <v>410.59233607131864</v>
+      </c>
+      <c r="E22">
+        <v>77.878458184817362</v>
+      </c>
+      <c r="F22">
+        <v>472.05565549459942</v>
+      </c>
+      <c r="G22">
+        <v>-514.46768672634812</v>
+      </c>
+      <c r="H22">
+        <v>74.19545860788017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-154.34995731326188</v>
+      </c>
+      <c r="B23">
+        <v>553.7777400413205</v>
+      </c>
+      <c r="C23">
+        <v>-133.76497698459067</v>
+      </c>
+      <c r="D23">
+        <v>-539.36331544929976</v>
+      </c>
+      <c r="E23">
+        <v>-417.09155993883405</v>
+      </c>
+      <c r="F23">
+        <v>-369.65771284502381</v>
+      </c>
+      <c r="G23">
+        <v>200.38302529953322</v>
+      </c>
+      <c r="H23">
+        <v>-1047.2741168533335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-545.42159835045788</v>
+      </c>
+      <c r="B24">
+        <v>-514.81696782387348</v>
+      </c>
+      <c r="C24">
+        <v>-24.559497987694609</v>
+      </c>
+      <c r="D24">
+        <v>638.20502996314656</v>
+      </c>
+      <c r="E24">
+        <v>-470.0725325809488</v>
+      </c>
+      <c r="F24">
+        <v>156.87578613419535</v>
+      </c>
+      <c r="G24">
+        <v>87.435579938686288</v>
+      </c>
+      <c r="H24">
+        <v>-42.298348771351016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>465.04528198795037</v>
+      </c>
+      <c r="B25">
+        <v>369.79607826638858</v>
+      </c>
+      <c r="C25">
+        <v>343.29688282745576</v>
+      </c>
+      <c r="D25">
+        <v>-370.47761586305074</v>
+      </c>
+      <c r="E25">
+        <v>282.76355222587063</v>
+      </c>
+      <c r="F25">
+        <v>-144.30020938778779</v>
+      </c>
+      <c r="G25">
+        <v>164.36779353216647</v>
+      </c>
+      <c r="H25">
+        <v>416.98285026556209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>116.30941290872825</v>
+      </c>
+      <c r="B26">
+        <v>-199.01631522608776</v>
+      </c>
+      <c r="C26">
+        <v>-690.33534192677087</v>
+      </c>
+      <c r="D26">
+        <v>-17.508096356766814</v>
+      </c>
+      <c r="E26">
+        <v>547.89795708662894</v>
+      </c>
+      <c r="F26">
+        <v>362.58351276936838</v>
+      </c>
+      <c r="G26">
+        <v>-774.13201092029249</v>
+      </c>
+      <c r="H26">
+        <v>-167.46969403875985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>630.13149133974173</v>
+      </c>
+      <c r="B27">
+        <v>783.19516059474961</v>
+      </c>
+      <c r="C27">
+        <v>206.44666892684015</v>
+      </c>
+      <c r="D27">
+        <v>-739.08615744811084</v>
+      </c>
+      <c r="E27">
+        <v>286.8798005050395</v>
+      </c>
+      <c r="F27">
+        <v>-109.7396661617998</v>
+      </c>
+      <c r="G27">
+        <v>-17.112721741011427</v>
+      </c>
+      <c r="H27">
+        <v>64.996121771228403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-140.01962185854171</v>
+      </c>
+      <c r="B28">
+        <v>-7.984996066286989</v>
+      </c>
+      <c r="C28">
+        <v>332.17897271183404</v>
+      </c>
+      <c r="D28">
+        <v>118.89785644534776</v>
+      </c>
+      <c r="E28">
+        <v>-317.51775799217904</v>
+      </c>
+      <c r="F28">
+        <v>-158.63517514360083</v>
+      </c>
+      <c r="G28">
+        <v>393.89199996484172</v>
+      </c>
+      <c r="H28">
+        <v>98.692192987949042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B12" sqref="B12:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,1303 +3216,1303 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*50-25</f>
-        <v>13.874709225368456</v>
+        <v>16.90478996370107</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:J16" ca="1" si="0">RAND()*50-25</f>
-        <v>18.006546994418329</v>
+        <v>13.290032129521343</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.531395274992455</v>
+        <v>20.700770406412126</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.601955918702988</v>
+        <v>24.653766924235605</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.180233215844304</v>
+        <v>12.31927273072597</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.962072562265035</v>
+        <v>-4.9528859577384949</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.538579044448781</v>
+        <v>14.404892731247173</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.60007733355895</v>
+        <v>19.257871980874242</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.7951078241069247</v>
+        <v>-18.035061581685923</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.180132225059936</v>
+        <v>-18.803549757127531</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:J31" ca="1" si="1">RAND()*50-25</f>
-        <v>2.5615343760979741</v>
+        <v>4.4646714822417337</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.349536923708882</v>
+        <v>-12.079191044925869</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>14.491309847531319</v>
+        <v>-17.497698628386665</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.68175534165843</v>
+        <v>8.0785018980965404</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.077959739469826</v>
+        <v>-14.472247530639814</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4455032795312839</v>
+        <v>17.133385970915604</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.213085861348887</v>
+        <v>13.77387241111942</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7552444583428368</v>
+        <v>-11.579775609453351</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.443599655607414</v>
+        <v>9.894717713519384</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.799990667962795</v>
+        <v>-11.574713565536749</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8342089124450496</v>
+        <v>24.475209364335569</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.966952016420993</v>
+        <v>-16.946624272402328</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>16.232578992591115</v>
+        <v>-19.977669617901761</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>22.487624267212801</v>
+        <v>-24.966169448202812</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.143278649106108</v>
+        <v>-21.435225729553501</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7964780279563435</v>
+        <v>24.788978893240845</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.446352097569985</v>
+        <v>6.3692140371242978</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>17.901634966778872</v>
+        <v>24.033410286262793</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.66204160232525</v>
+        <v>8.021284776701485</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.86123684269879774</v>
+        <v>2.2093821531262421</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.655719052180473</v>
+        <v>20.098420613315781</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4025945119910439</v>
+        <v>24.625409561054759</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>23.193652670146072</v>
+        <v>-19.948152061790591</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.858956832207092</v>
+        <v>3.5725613210874805</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.404076200476112</v>
+        <v>22.581600112205621</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.626222324352959</v>
+        <v>20.890106717656138</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.6019842570226928</v>
+        <v>-23.5437728447151</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.494497108019829</v>
+        <v>10.745030304296165</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6285593530059757</v>
+        <v>7.0361410404428284</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.3511499190981588</v>
+        <v>-5.2541959140749661</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5129734500366538</v>
+        <v>7.155144595416715</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.870117385531088</v>
+        <v>4.4274224148598869</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>17.364427056118778</v>
+        <v>5.6236363003875915</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.231631641982943</v>
+        <v>-11.584981457982252</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.868825588558952</v>
+        <v>13.948259570196939</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.55774477748534679</v>
+        <v>20.183577057191854</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.0511875970436861</v>
+        <v>4.1194946994757551</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.583310492737063</v>
+        <v>5.3707733804496662</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.157201894872237</v>
+        <v>14.527702147967737</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72825788294906957</v>
+        <v>0.21657751365081879</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5847387413268308</v>
+        <v>-9.2847367295842869</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.316722679141247</v>
+        <v>-17.062513320246836</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>15.98101472360046</v>
+        <v>-22.812746060544487</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.265285068075833</v>
+        <v>-9.4571684560801224</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8978506959041788</v>
+        <v>-22.290854886555035</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.97535922012228</v>
+        <v>-1.1041607847960648</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.521796343896852</v>
+        <v>7.4939527934918928</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5076606458693043</v>
+        <v>-3.1531359297065684</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4213435180547975</v>
+        <v>8.9963628760765033</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.360836717488006</v>
+        <v>-14.573675404516646</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.5236471196320274</v>
+        <v>-20.057449824569019</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>14.165257715819735</v>
+        <v>15.437828586073628</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1196455324706847</v>
+        <v>-17.130209275791685</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.216704114380292</v>
+        <v>-19.728149290324964</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>20.786956560334957</v>
+        <v>15.968128855727137</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.644393164868738</v>
+        <v>1.4336984453256534</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6028703306042829</v>
+        <v>14.471767098687785</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.825013014854161</v>
+        <v>-1.1672423674699566</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.930911630978564</v>
+        <v>2.3017782126344137</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9393288450925681</v>
+        <v>18.791427595842769</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>22.677639641523065</v>
+        <v>-22.104998005987831</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.477229892459178</v>
+        <v>-10.512283398199623</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6196415427123156</v>
+        <v>17.758511126727463</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3303567719936318</v>
+        <v>-17.902485916282806</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>20.826289403309787</v>
+        <v>-13.581580314777819</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.676877358989875</v>
+        <v>22.031135238585094</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6636709430287908</v>
+        <v>2.5004887160686948</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.266951200793379</v>
+        <v>-21.508699053139036</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.2633204628053107</v>
+        <v>-11.670017402022204</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>19.27377321659683</v>
+        <v>-4.6972958569200323</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>18.535931665645869</v>
+        <v>-9.5133714961206586</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>17.917887305250879</v>
+        <v>-9.1702466374482547</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13324986811458217</v>
+        <v>-4.0345431274084191</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.523190230362736</v>
+        <v>-13.112036094469742</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.042448009453683</v>
+        <v>-20.900290296512352</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5134737278046657</v>
+        <v>15.622131032387919</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>20.797701182805042</v>
+        <v>-16.43151277356408</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.393056749464542</v>
+        <v>-19.244077798358756</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9391274149271602</v>
+        <v>-21.891844377554758</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.531641867968542</v>
+        <v>-2.973298822665992</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.2684592302796247</v>
+        <v>-1.9883717171661708</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.966498419707495</v>
+        <v>9.6501424679785117</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>11.172529908642097</v>
+        <v>5.8972614825821985</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3318427202112062</v>
+        <v>9.3558472148259924</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>19.286733047189095</v>
+        <v>-3.4173062809833397</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1516635351798179</v>
+        <v>8.2838774579011201</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5718332585745571</v>
+        <v>3.857438080617122</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>21.53156394399322</v>
+        <v>-3.1740643935103741</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.90819186088212</v>
+        <v>-7.6882096556216872</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>23.657883298025062</v>
+        <v>-10.896531068050692</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1487797946991378</v>
+        <v>-6.9138468220015454</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>11.708274787147467</v>
+        <v>13.701952032245885</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.6504745840792214</v>
+        <v>-5.311837632297145</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>13.216459422843222</v>
+        <v>-18.89421009131642</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9633867046401008</v>
+        <v>-8.2744829101971078</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.092037236628421</v>
+        <v>-23.846288406751793</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>11.383911609198336</v>
+        <v>-5.7986575189565137</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>17.134644768240435</v>
+        <v>3.7921946102786528</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.613728562996972</v>
+        <v>-11.081139120905714</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.825482615952506</v>
+        <v>22.301033417572278</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.961255878588982</v>
+        <v>10.416281525683743</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.803656572290194</v>
+        <v>-21.998695806898205</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>18.124133692402133</v>
+        <v>6.4735909266002025</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.831528606765801</v>
+        <v>-6.3057430506943781</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.409807284069885</v>
+        <v>-1.0479776595032675</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.943789420411036</v>
+        <v>-19.845627301183004</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.71712032061977</v>
+        <v>-13.6375265011007</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.052799665940686</v>
+        <v>17.721317577276707</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.037212441371132</v>
+        <v>-16.253972707020104</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0310826949928611</v>
+        <v>-14.841881920568845</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.334897917123246</v>
+        <v>-23.992873127433423</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>15.987201721282894</v>
+        <v>-22.106877309763323</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.612406248806092</v>
+        <v>1.5004481597232342</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76858629957459357</v>
+        <v>-15.45371439194575</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.293075566104235</v>
+        <v>-17.48491482624754</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>16.817675166047593</v>
+        <v>13.224166758569226</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.0790148016394383</v>
+        <v>-9.7816987741059229</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.902990886210539</v>
+        <v>-23.611334555304136</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>15.804534103174653</v>
+        <v>12.350600109801761</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.954655881800802</v>
+        <v>2.3275158365077537</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>20.705272005888645</v>
+        <v>-8.4000529618235191</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.413681797980232</v>
+        <v>-12.175723186139836</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>16.965125738398676</v>
+        <v>22.883849134836709</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0594821420094114</v>
+        <v>4.4940709489505615</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.847670847019298</v>
+        <v>-20.783600188558708</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>12.106703355214357</v>
+        <v>4.3412439710099733</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2177409663532721</v>
+        <v>0.45201713323342929</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.916907235717453</v>
+        <v>2.4582859021270664</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.885764679671254</v>
+        <v>-9.6649264600358435</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>14.853351540477696</v>
+        <v>-10.702109936963177</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8231144444980494</v>
+        <v>15.669655016579732</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68104622312842267</v>
+        <v>-21.270276504751102</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>15.99436078879701</v>
+        <v>4.1491815559019045</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4133406058585223</v>
+        <v>11.957974785574521</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>19.505443167539454</v>
+        <v>-7.1224088712752867</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8926295313376293</v>
+        <v>-4.174865599415579</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.684561954545714</v>
+        <v>-0.98552256490532386</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.333992344297329</v>
+        <v>-18.703467939950595</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.512015452146118</v>
+        <v>-11.132530471493872</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8235841944542059</v>
+        <v>-18.688334570309973</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0913129056079605</v>
+        <v>14.302524377903133</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.960652583599796</v>
+        <v>-1.4400414930930623</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8021293002906873</v>
+        <v>-10.213607048902878</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.218935816859688</v>
+        <v>18.228923951685886</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>16.827990432259341</v>
+        <v>7.3301915218008773</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.65531410775983</v>
+        <v>11.316822340628228</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>13.827334136926645</v>
+        <v>-9.3071481537413838</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9108406074923359</v>
+        <v>-14.964392284512485</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.7527513662418635</v>
+        <v>12.215587877632281</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.311931977320507</v>
+        <v>5.1360591082317271</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2005370953963244</v>
+        <v>-24.777551894723356</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2540492837507777</v>
+        <v>-2.874038557852387</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5637305846789857</v>
+        <v>-10.672725706885316</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.671140895129781</v>
+        <v>-0.29307031994871124</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.965169637931579</v>
+        <v>14.784044322368317</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.350713524926013</v>
+        <v>16.785382903287271</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.792988626493717</v>
+        <v>3.9764346877037902</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8428722288760362</v>
+        <v>-11.729684148312186</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.4342457264381459</v>
+        <v>1.9526073593155715</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7264661101637557</v>
+        <v>-18.940800184108369</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>19.559073177982746</v>
+        <v>-16.355902749253879</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.890927953473554</v>
+        <v>15.446090789515928</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>24.539345699947383</v>
+        <v>-18.024624192466348</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.751816900594402</v>
+        <v>-4.3019478168694185</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1836273982916659</v>
+        <v>-17.175577139327729</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.414859362823332</v>
+        <v>-21.230260411706318</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>14.325595212851603</v>
+        <v>-7.2263743997109948</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1549453187683305</v>
+        <v>19.849988620312544</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>22.782112185716933</v>
+        <v>-13.835602220424231</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3224273960957156</v>
+        <v>5.7627595363785424</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>24.539314831351234</v>
+        <v>-8.2170256757868039</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>16.174514395035985</v>
+        <v>18.280599866247151</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.7360633345871701</v>
+        <v>7.9758492693873606</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.091838289248678</v>
+        <v>24.826802234026452</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.556668666417821</v>
+        <v>23.753647949886933</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.943586254501536</v>
+        <v>-16.701145546106751</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9171399638268518</v>
+        <v>24.968006606982271</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6771857804699977</v>
+        <v>22.836305851762312</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5274671633343821</v>
+        <v>13.135158968829721</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.679236231490727</v>
+        <v>-4.2772457333855591</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>15.111213145974226</v>
+        <v>4.1603668157072562</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2799492807325308</v>
+        <v>-15.034184580174671</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.356510423567013</v>
+        <v>-7.7004869255438635</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>18.608060868144072</v>
+        <v>-21.755911565833259</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.42356684785898</v>
+        <v>12.936213758162232</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.4669883428449282</v>
+        <v>-7.7198073273399963</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.1922941119858095</v>
+        <v>-10.926638352090151</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3428611594521342</v>
+        <v>-2.4949712326820013</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>23.91973086680008</v>
+        <v>24.249164855197982</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5865797289960035</v>
+        <v>-17.413977327089192</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>23.571689599959036</v>
+        <v>-13.737653574915893</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.335764719743025</v>
+        <v>17.349357170174386</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5124653498583278</v>
+        <v>-9.6893878041276249</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>14.240131638375317</v>
+        <v>-22.776148560443325</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.869831606856625</v>
+        <v>3.1038370757631384E-2</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.87822320696907</v>
+        <v>21.169897889123988</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.7800575833738641</v>
+        <v>3.2421141427823201</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5127911703757562</v>
+        <v>-16.011228036106129</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.871154024579841</v>
+        <v>8.7654477552524952</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3384713805702546</v>
+        <v>-12.054207531881961</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.39795363144267171</v>
+        <v>24.084750549094913</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81876267503774969</v>
+        <v>13.650645886094829</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>18.940021993728692</v>
+        <v>-9.466098745997769</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>17.06165118755677</v>
+        <v>-9.1444071580674908</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0791394278660391</v>
+        <v>-10.906536694839652</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.661506050755197</v>
+        <v>-8.4263891470860592</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>21.800006426345959</v>
+        <v>11.485104883801803</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9707730340048464</v>
+        <v>-14.143793851571223</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.22692412072837</v>
+        <v>-17.468182100746681</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>14.479093750578961</v>
+        <v>20.461006971022577</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.870060169103354</v>
+        <v>4.4667654574213387</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6889027262059422</v>
+        <v>11.560329724673032</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>12.035829137987619</v>
+        <v>-17.808255345032777</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>18.480215919954638</v>
+        <v>1.6424500134961342</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>13.397759169509996</v>
+        <v>22.468247476946246</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>14.731797902916391</v>
+        <v>3.5680880794708649</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>22.009372546572251</v>
+        <v>-9.3318269400536771</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>23.06652070610555</v>
+        <v>7.5774352019200819</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.52863404749046</v>
+        <v>11.215574465184815</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.199056170053634</v>
+        <v>7.3731097598406237</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0924985815774235</v>
+        <v>-5.4246462307330319</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>14.742925577237287</v>
+        <v>20.793466330860696</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7411481721280886</v>
+        <v>20.586969536258728</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3098292615550911</v>
+        <v>-8.9432568098189407</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>20.009473782086765</v>
+        <v>-16.125785126314987</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5782951610088745</v>
+        <v>-5.8707666627006212</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.73504510888397</v>
+        <v>-20.067740122079929</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.30676591324469271</v>
+        <v>-18.568169402699212</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.211254397045836</v>
+        <v>-3.6841370969698417</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9245608126714302</v>
+        <v>-13.290124702886663</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>24.115842856683322</v>
+        <v>-0.79776540058303524</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.209568572224363</v>
+        <v>-21.968895959636285</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.304541890879346</v>
+        <v>4.8505079743282593</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>22.235016731361505</v>
+        <v>-8.9618169245798782</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>21.969885535554816</v>
+        <v>-13.097286909018063</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3229829300044358</v>
+        <v>7.5233068797887128</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>18.055685326532</v>
+        <v>13.48855356670515</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2003016534413469</v>
+        <v>-10.537767192156295</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>12.644779600353708</v>
+        <v>-18.944065312950858</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>18.337691544052298</v>
+        <v>-23.831803810104979</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.3659983221681884</v>
+        <v>-23.268973939230641</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>20.62794169105986</v>
+        <v>8.2144881023700975</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7294306180494239</v>
+        <v>-21.452524356074669</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>19.864414489809555</v>
+        <v>-18.141083018652232</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>20.018579455743968</v>
+        <v>14.57606890610878</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4752377667307925</v>
+        <v>-23.400823546895943</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.6551632224443829</v>
+        <v>-22.633849893759301</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>12.274701282350819</v>
+        <v>6.8869136929183341</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>20.451156060174597</v>
+        <v>-0.56233689479576299</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.292931126209517</v>
+        <v>-21.785997953961818</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0582337848251804</v>
+        <v>-21.136698413282822</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>17.268387191480095</v>
+        <v>15.277398430024633</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.197726179942073</v>
+        <v>-10.516619795999716</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4567350495811127</v>
+        <v>24.121871863542403</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.838971162918746</v>
+        <v>-19.328459276220155</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0520269206599906</v>
+        <v>20.335468154612983</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.0857334082208219</v>
+        <v>21.881496895209622</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>16.231685383288344</v>
+        <v>-18.832214877266694</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.1940108364467079</v>
+        <v>-24.463821545278552</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.0653557844566492</v>
+        <v>3.3489959299500498</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.274189831861019</v>
+        <v>8.3345949493547522</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>16.01630848218187</v>
+        <v>13.78883579186126</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8878917381645479</v>
+        <v>-10.680129001240351</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26516027139240705</v>
+        <v>-8.7771534658224724</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3116625618581672</v>
+        <v>7.330299855107441</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.301577855526013</v>
+        <v>-5.2558249583796197</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.435715152435211</v>
+        <v>-3.4059190328275371</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.605932152314015</v>
+        <v>-17.311464230192424</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.042682201315737</v>
+        <v>8.6183133917595924</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>22.902124962269696</v>
+        <v>-5.7683621750475496</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>16.749046482865339</v>
+        <v>-4.5768214419594599</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>12.539826411667434</v>
+        <v>5.3192893816274065</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4177756040469269</v>
+        <v>2.2950414102845862</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.34365237547631</v>
+        <v>-14.620468119684531</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8612783044221359</v>
+        <v>-24.273544584410452</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>17.869411316418606</v>
+        <v>-18.354014226023825</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>20.440006588645602</v>
+        <v>23.601029255621256</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>22.845410776389407</v>
+        <v>-3.1233171697830251</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.459676764994368</v>
+        <v>23.917881532275324</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7697132132234792</v>
+        <v>15.114351161375211</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>14.694988153045607</v>
+        <v>24.129214369009198</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3602327579491664</v>
+        <v>3.8452759421949523</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>16.898064232201484</v>
+        <v>-14.245904598726439</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>14.918938161731575</v>
+        <v>-21.372071460014414</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4739928205310235</v>
+        <v>-16.676792193212712</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>17.215218360174099</v>
+        <v>-12.105583526632602</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>10.906251233139947</v>
+        <v>-15.416673601047282</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.8184112925531153</v>
+        <v>-20.33893269023681</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.699772449526359</v>
+        <v>-19.592297346944932</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.437031604007082</v>
+        <v>-4.869361601648869</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7309649106974661</v>
+        <v>-14.184809038475555</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.2621689963788683</v>
+        <v>10.368550871701018</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4704184817555479</v>
+        <v>10.683002762723412</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>13.77202449416319</v>
+        <v>17.15330404767596</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>17.100487765707491</v>
+        <v>16.941135518599545</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>11.700442065380628</v>
+        <v>-24.766321050287495</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>13.707765124811679</v>
+        <v>-22.874332162631646</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.082738445342823</v>
+        <v>22.638012528055029</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="1"/>
-        <v>20.512412676748134</v>
+        <v>19.462370887159018</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="1"/>
-        <v>23.040061549585339</v>
+        <v>1.3000916417130917</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/MulTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/MulTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="19440" windowHeight="11040" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19440" windowHeight="11040" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="5x5 mul 5x5" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,16 @@
     <sheet name="13x1 mul 1x4" sheetId="6" r:id="rId5"/>
     <sheet name="Scalar mul 7x7" sheetId="7" r:id="rId6"/>
     <sheet name="Scalar mul 13x2" sheetId="8" r:id="rId7"/>
-    <sheet name="8x4 mul 4x8" sheetId="9" r:id="rId8"/>
-    <sheet name="rand" sheetId="3" r:id="rId9"/>
+    <sheet name="1x7 mul 7x1" sheetId="10" r:id="rId8"/>
+    <sheet name="8x4 mul 4x8" sheetId="9" r:id="rId9"/>
+    <sheet name="rand" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
   <si>
     <t>#0</t>
   </si>
@@ -677,6 +678,1323 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f ca="1">RAND()*50-25</f>
+        <v>22.911416532281677</v>
+      </c>
+      <c r="B1">
+        <f t="shared" ref="B1:J16" ca="1" si="0">RAND()*50-25</f>
+        <v>4.2082472867632852</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.050974083021181</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.1388435761360398</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.1505020810555386</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.703325911400341</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.211232992031082</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.1579406725004802</v>
+      </c>
+      <c r="I1">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.83467902472647992</v>
+      </c>
+      <c r="J1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.497755428873909</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f t="shared" ref="A2:J31" ca="1" si="1">RAND()*50-25</f>
+        <v>4.4486104776072892</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.388642470832409</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.6089387541158118</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.830875230927781</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.0356101238451814</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8410243513497946</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-22.829910265702363</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-13.81644389945586</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.7177163302357883</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.0596803839680149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ca="1" si="1"/>
+        <v>-15.032046492834777</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.334206647677242</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6599305841441208</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.795682037159892</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.7295473939559436</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26981058715965744</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.557128096369663</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.071859848659408</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.666230924501008</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-18.574415363188262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.335630266927012</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10.80976175602062</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6929187460168542</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4915042761136519</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.031544467893557</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.6825270635402347</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.1365829784874286</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.9343523324635612</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-19.629647014652058</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.835246846369031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.885416968223907</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.106967605935033</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6610326525444066</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.309271662205312</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.411389489987414</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-13.494513442391243</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.2979618339042176</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9.4828221471343959</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9537799701316771</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-17.246191951760188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-24.481422354460573</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>20.7095612841321</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.0597010392747599</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-12.350228837791111</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.501871530950005</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9.2449560072774002</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.46658499208213655</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40794507276390846</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="0"/>
+        <v>-14.344012905834392</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.481784080264418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.9153163418122787</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-22.545862868877876</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10.597945556082223</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.2728630716718783</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.9390995672608859</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-15.280814808204941</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.2630275176997685</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.877329991927851</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-14.831926126839374</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="0"/>
+        <v>20.451099690507597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.4805617595794693</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.708314799148624</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.6578596295557837</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.2058303012264346</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.653579288038614</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.9552325647174271</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-15.657902034904737</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8989121383533352</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.432965262733362</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.160306288331185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.5542481726217989</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-14.23237163861873</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.749635441798986</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.844161445595688</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1405681853702703</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.667875830368182</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-22.909628846766722</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.2138364600571521</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.0524942888811069</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.090150791489968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.895611649396436</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-21.82210880358129</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6234770529973019</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-13.476022412150757</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7192331805436076</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.812469237729161</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.711016917752637</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.7939672030233851</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.030033850853002</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-12.526333582166632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.557392301090566</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-15.579827550418401</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10.874867376781433</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.9210375626308327</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>20.092720043974843</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.0072138590883846</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.135199384341909</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-12.764736389743758</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.033791084080505</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.8217829736818842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ca="1" si="1"/>
+        <v>-15.982265436142939</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.2758051420548817</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.911539694226597</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-12.314523327666116</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-16.036978536868325</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.437582918350749</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-10.527048934475985</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>-13.50433496296306</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.551556118778663</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39632993281624707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ca="1" si="1"/>
+        <v>-12.830591224758725</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.289755935448959</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-17.663449304794661</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4239077419005177</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6966455170530956</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.85265015322905</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0338960030519715</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.3992256901402875</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.11260440802883</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-19.525421657862179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.09476065406357</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.6120219523765407</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.587753443105477</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-15.645145137140037</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-16.873700729251105</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.7292861553410575</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2115263743864446</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3620451648173351</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-21.953447863081433</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-18.66856703285691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.700114612039201</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-14.082171790827042</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5644337550515317</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-18.980968419810829</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6844522425643369</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.791741856361682</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9265408363526504</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-23.178820589015402</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.894208529957716</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.573383817639979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1107512423881438</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.8452163774562749</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.341628670997636</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.732162190410556</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.238299014138732</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.023280233202584</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.655329510559881</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-21.969602941131701</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-14.033835944804258</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.978747995654317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-15.86431044171832</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-20.95250915529779</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3518753242191046</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-19.599210803600002</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.095443768031693</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-24.232519722546552</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0325681993750955</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-15.814054924281235</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-11.77511904645187</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0720531883395772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.5044670422919</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.98888962617992959</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-14.023149750434843</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-10.799981837287115</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-24.153860686908736</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.009963694252953</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.8471655590573164</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.3945110414960062</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-8.2419539436908735</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.6854235376513316E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.8024506538454954</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5659295221696539</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.1101219616028928</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.245135737951976</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.0183833625622043</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.940912161655874</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-8.995202383550204</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.280334978283431</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-12.290252954073372</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-22.541883403114781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.86781304045907603</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.783674179122087</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>-17.299770631180628</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.144158957758052</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.0207191924387722</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1317403508933239</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.5973800884008149</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.624250539549017</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.2458406555637822</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="1"/>
+        <v>-14.890084968003842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.6970849294855874</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.3088402836077826</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.1030384136414852</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.6074697858060176E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-20.795382950279063</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-18.728807359514853</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.7947697146754145</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.4657216702801037</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.9535615180958317</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-23.751969158194708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.2569743790457082</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.477467411432286</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.351194080922351</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9112658077348428</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.318024847391136</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.858240761812844</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.2604577865186997</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="1"/>
+        <v>-8.6890284458475335</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.3812980586605832</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="1"/>
+        <v>-12.877873091568642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-23.125524174361956</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-24.774586943999559</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.860072844284048</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.6780720644003573</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.434496253440269</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.335944861542743</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.788180722078017</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.0948118709420562</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.143097130334226</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.970450037540004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ca="1" si="1"/>
+        <v>-12.647801667330361</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.566730308164928</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47823704060425243</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.4950300393836002</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="1"/>
+        <v>-10.042432178024391</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.363067176696227</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="1"/>
+        <v>-19.958057421853869</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.6910490947345025</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.9870211644437141</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="1"/>
+        <v>-17.406923323784834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.251867790205743</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.753525111472285</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-15.367516658417951</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-21.593079410200012</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.062685531743433</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.720247436142806</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.1828989601884103</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.471489963903597</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.8764704371611387</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.1092373500813508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.7664354963505744</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.981996372110366</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>-22.219739448970579</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.1796477452938561</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="1"/>
+        <v>-12.369356801886106</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.4364203191776284</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.92056000989475</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.75252884290131661</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.0950026017261507</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="1"/>
+        <v>-24.129052406298442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.543059370811946</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="1"/>
+        <v>21.480010466717744</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-20.041527684419066</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.916624241125113</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-21.647346636584018</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-19.184233230621572</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.666324252087882</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9566550212831082</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.9348114120496938</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-11.959354464469913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" ca="1" si="1"/>
+        <v>-12.31027659247127</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.2344892785024157</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.701013981236827</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.2261268175136131</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="1"/>
+        <v>21.864073099031387</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.1996035970730965</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.042651036512659</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="1"/>
+        <v>-12.01008557793819</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.891241002058244</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="1"/>
+        <v>-22.49981422592484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.4555479345211992</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.8024965292873567</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.585226644012671</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.0128582095210703</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-24.958851064655104</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.777520790271446</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-18.299392651808475</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.361184816187972</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.801778464369974</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-23.519640044039903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.392802747532116</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.675059949110576</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.8412140992397035</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.293422987175298</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4458819663851443</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="1"/>
+        <v>20.141696632746189</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.550513676481103</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="1"/>
+        <v>-8.0156749593534471E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.4879954407889358</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1444831715213439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-19.070052018168688</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.5932876318780611</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-12.366112506546029</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-17.522276070791971</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84706124123150062</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.3586456747344648</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.53464131123809</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-8.4979927031468634</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.1557685379234002</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-20.973490108319194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
@@ -2726,9 +4044,127 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-7.3387521558041584</v>
+      </c>
+      <c r="B3">
+        <v>-17.722347177649183</v>
+      </c>
+      <c r="C3">
+        <v>-16.743545659736714</v>
+      </c>
+      <c r="D3">
+        <v>-10.768336166493514</v>
+      </c>
+      <c r="E3">
+        <v>-21.079686506978984</v>
+      </c>
+      <c r="F3">
+        <v>19.363598483746856</v>
+      </c>
+      <c r="G3">
+        <v>-24.32272643364935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-5.6183869948673362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21.889437159828248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>13.777384937708604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-23.621641088338119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>23.261470227797211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20.022844784996913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-1.0525785643484618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>MMULT(A3:G3,A7:A13)</f>
+        <v>-400.04534963565334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:H28"/>
     </sheetView>
   </sheetViews>
@@ -3201,1321 +4637,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">RAND()*50-25</f>
-        <v>16.90478996370107</v>
-      </c>
-      <c r="B1">
-        <f t="shared" ref="B1:J16" ca="1" si="0">RAND()*50-25</f>
-        <v>13.290032129521343</v>
-      </c>
-      <c r="C1">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.700770406412126</v>
-      </c>
-      <c r="D1">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.653766924235605</v>
-      </c>
-      <c r="E1">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.31927273072597</v>
-      </c>
-      <c r="F1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.9528859577384949</v>
-      </c>
-      <c r="G1">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.404892731247173</v>
-      </c>
-      <c r="H1">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.257871980874242</v>
-      </c>
-      <c r="I1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-18.035061581685923</v>
-      </c>
-      <c r="J1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-18.803549757127531</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f t="shared" ref="A2:J31" ca="1" si="1">RAND()*50-25</f>
-        <v>4.4646714822417337</v>
-      </c>
-      <c r="B2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-12.079191044925869</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-17.497698628386665</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.0785018980965404</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-14.472247530639814</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.133385970915604</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.77387241111942</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-11.579775609453351</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.894717713519384</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ca="1" si="0"/>
-        <v>-11.574713565536749</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.475209364335569</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-16.946624272402328</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-19.977669617901761</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-24.966169448202812</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>-21.435225729553501</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.788978893240845</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3692140371242978</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.033410286262793</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.021284776701485</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2093821531262421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.098420613315781</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.625409561054759</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-19.948152061790591</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5725613210874805</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.581600112205621</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.890106717656138</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-23.5437728447151</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.745030304296165</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0361410404428284</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5.2541959140749661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.155144595416715</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.4274224148598869</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6236363003875915</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>-11.584981457982252</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.948259570196939</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.183577057191854</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.1194946994757551</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.3707733804496662</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.527702147967737</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21657751365081879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" ca="1" si="1"/>
-        <v>-9.2847367295842869</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-17.062513320246836</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-22.812746060544487</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9.4571684560801224</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-22.290854886555035</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.1041607847960648</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4939527934918928</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.1531359297065684</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.9963628760765033</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="0"/>
-        <v>-14.573675404516646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.057449824569019</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.437828586073628</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>-17.130209275791685</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>-19.728149290324964</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.968128855727137</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4336984453256534</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.471767098687785</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.1672423674699566</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3017782126344137</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.791427595842769</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-22.104998005987831</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10.512283398199623</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.758511126727463</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-17.902485916282806</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-13.581580314777819</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.031135238585094</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5004887160686948</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-21.508699053139036</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-11.670017402022204</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.6972958569200323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" ca="1" si="1"/>
-        <v>-9.5133714961206586</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9.1702466374482547</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.0345431274084191</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>-13.112036094469742</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>-20.900290296512352</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.622131032387919</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>-16.43151277356408</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="0"/>
-        <v>-19.244077798358756</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="0"/>
-        <v>-21.891844377554758</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.973298822665992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.9883717171661708</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6501424679785117</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8972614825821985</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3558472148259924</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.4173062809833397</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2838774579011201</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.857438080617122</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.1740643935103741</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7.6882096556216872</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10.896531068050692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.9138468220015454</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.701952032245885</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5.311837632297145</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-18.89421009131642</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8.2744829101971078</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-23.846288406751793</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5.7986575189565137</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.7921946102786528</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-11.081139120905714</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.301033417572278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.416281525683743</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-21.998695806898205</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4735909266002025</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-6.3057430506943781</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.0479776595032675</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-19.845627301183004</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-13.6375265011007</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.721317577276707</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-16.253972707020104</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ca="1" si="0"/>
-        <v>-14.841881920568845</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-23.992873127433423</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>-22.106877309763323</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5004481597232342</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>-15.45371439194575</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>-17.48491482624754</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.224166758569226</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9.7816987741059229</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="0"/>
-        <v>-23.611334555304136</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.350600109801761</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3275158365077537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.4000529618235191</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-12.175723186139836</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.883849134836709</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.4940709489505615</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-20.783600188558708</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.3412439710099733</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45201713323342929</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4582859021270664</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9.6649264600358435</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10.702109936963177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.669655016579732</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-21.270276504751102</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.1491815559019045</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.957974785574521</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7.1224088712752867</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.174865599415579</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.98552256490532386</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-18.703467939950595</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-11.132530471493872</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="0"/>
-        <v>-18.688334570309973</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.302524377903133</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.4400414930930623</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>-10.213607048902878</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.228923951685886</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3301915218008773</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.316822340628228</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9.3071481537413838</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="0"/>
-        <v>-14.964392284512485</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.215587877632281</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.1360591082317271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-24.777551894723356</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.874038557852387</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10.672725706885316</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.29307031994871124</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.784044322368317</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.785382903287271</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.9764346877037902</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-11.729684148312186</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9526073593155715</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-18.940800184108369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-16.355902749253879</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.446090789515928</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-18.024624192466348</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.3019478168694185</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-17.175577139327729</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-21.230260411706318</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7.2263743997109948</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="1"/>
-        <v>19.849988620312544</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-13.835602220424231</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.7627595363785424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.2170256757868039</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="1"/>
-        <v>18.280599866247151</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.9758492693873606</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.826802234026452</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>23.753647949886933</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="1"/>
-        <v>-16.701145546106751</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.968006606982271</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.836305851762312</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.135158968829721</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.2772457333855591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.1603668157072562</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-15.034184580174671</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7.7004869255438635</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-21.755911565833259</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.936213758162232</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7.7198073273399963</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10.926638352090151</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.4949712326820013</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.249164855197982</v>
-      </c>
-      <c r="J20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-17.413977327089192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" ca="1" si="1"/>
-        <v>-13.737653574915893</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="1"/>
-        <v>17.349357170174386</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>-9.6893878041276249</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="1"/>
-        <v>-22.776148560443325</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.1038370757631384E-2</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="1"/>
-        <v>21.169897889123988</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2421141427823201</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="1"/>
-        <v>-16.011228036106129</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.7654477552524952</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ca="1" si="1"/>
-        <v>-12.054207531881961</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.084750549094913</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.650645886094829</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-9.466098745997769</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-9.1444071580674908</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10.906536694839652</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.4263891470860592</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.485104883801803</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-14.143793851571223</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-17.468182100746681</v>
-      </c>
-      <c r="J22">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.461006971022577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4667654574213387</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.560329724673032</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>-17.808255345032777</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6424500134961342</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.468247476946246</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.5680880794708649</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="1"/>
-        <v>-9.3318269400536771</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5774352019200819</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.215574465184815</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.3731097598406237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.4246462307330319</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.793466330860696</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.586969536258728</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.9432568098189407</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>-16.125785126314987</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.8707666627006212</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.067740122079929</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ca="1" si="1"/>
-        <v>-18.568169402699212</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.6841370969698417</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ca="1" si="1"/>
-        <v>-13.290124702886663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.79776540058303524</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ca="1" si="1"/>
-        <v>-21.968895959636285</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.8505079743282593</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.9618169245798782</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>-13.097286909018063</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5233068797887128</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.48855356670515</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10.537767192156295</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ca="1" si="1"/>
-        <v>-18.944065312950858</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="1"/>
-        <v>-23.831803810104979</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" ca="1" si="1"/>
-        <v>-23.268973939230641</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.2144881023700975</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>-21.452524356074669</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="1"/>
-        <v>-18.141083018652232</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.57606890610878</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="1"/>
-        <v>-23.400823546895943</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="1"/>
-        <v>-22.633849893759301</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8869136929183341</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.56233689479576299</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ca="1" si="1"/>
-        <v>-21.785997953961818</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" ca="1" si="1"/>
-        <v>-21.136698413282822</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.277398430024633</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10.516619795999716</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.121871863542403</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>-19.328459276220155</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.335468154612983</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="1"/>
-        <v>21.881496895209622</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ca="1" si="1"/>
-        <v>-18.832214877266694</v>
-      </c>
-      <c r="I27">
-        <f t="shared" ca="1" si="1"/>
-        <v>-24.463821545278552</v>
-      </c>
-      <c r="J27">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.3489959299500498</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.3345949493547522</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.78883579186126</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10.680129001240351</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.7771534658224724</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.330299855107441</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.2558249583796197</v>
-      </c>
-      <c r="G28">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.4059190328275371</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ca="1" si="1"/>
-        <v>-17.311464230192424</v>
-      </c>
-      <c r="I28">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.6183133917595924</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.7683621750475496</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.5768214419594599</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3192893816274065</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2950414102845862</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-14.620468119684531</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-24.273544584410452</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-18.354014226023825</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ca="1" si="1"/>
-        <v>23.601029255621256</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.1233171697830251</v>
-      </c>
-      <c r="I29">
-        <f t="shared" ca="1" si="1"/>
-        <v>23.917881532275324</v>
-      </c>
-      <c r="J29">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.114351161375211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.129214369009198</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.8452759421949523</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-14.245904598726439</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-21.372071460014414</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-16.676792193212712</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-12.105583526632602</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-15.416673601047282</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.33893269023681</v>
-      </c>
-      <c r="I30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-19.592297346944932</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.869361601648869</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" ca="1" si="1"/>
-        <v>-14.184809038475555</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.368550871701018</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.683002762723412</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="1"/>
-        <v>17.15330404767596</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.941135518599545</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="1"/>
-        <v>-24.766321050287495</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="1"/>
-        <v>-22.874332162631646</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.638012528055029</v>
-      </c>
-      <c r="I31">
-        <f t="shared" ca="1" si="1"/>
-        <v>19.462370887159018</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.3000916417130917</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>